--- a/plan_d_experience.xlsx
+++ b/plan_d_experience.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27021"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68858172-9C22-4F18-898E-D37F7B52DFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Documents\ISIMA\3A\anomalie_detection\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5C681-B939-4F98-8EC7-1F0D6533D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
-  <si>
-    <t>Iso</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>Datasets</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                    credit card</t>
-  </si>
-  <si>
-    <t>cardiography</t>
-  </si>
-  <si>
-    <t>backdoor</t>
-  </si>
-  <si>
     <t>Modèles</t>
   </si>
   <si>
@@ -64,13 +57,169 @@
   </si>
   <si>
     <t>ROC-AUC</t>
+  </si>
+  <si>
+    <t>UNSW-NB15 (backdoor detection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                    credit card fraud detection</t>
+  </si>
+  <si>
+    <t>Local Outlier F.</t>
+  </si>
+  <si>
+    <t>Iso Forest</t>
+  </si>
+  <si>
+    <t>One class SVM</t>
+  </si>
+  <si>
+    <t>Auto-encoder</t>
+  </si>
+  <si>
+    <t>Variational AE</t>
+  </si>
+  <si>
+    <t>AnoGAN</t>
+  </si>
+  <si>
+    <t>Siameses Net</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.81</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>faux positif</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>GANormal</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -128,19 +277,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -185,35 +321,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -222,24 +353,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
@@ -247,18 +406,65 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thick">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -266,48 +472,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -329,7 +545,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -625,238 +841,435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:T31"/>
+  <dimension ref="E2:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="5" width="14.28515625" customWidth="1"/>
+    <col min="3" max="5" width="14.26953125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="13" width="14.7265625" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" ht="27.75" customHeight="1">
+    <row r="2" spans="5:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="3:20">
-      <c r="C3" t="s">
+    </row>
+    <row r="3" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="3:20">
-      <c r="F4" s="15" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="23"/>
+    </row>
+    <row r="5" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="26"/>
+    </row>
+    <row r="6" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="17"/>
-    </row>
-    <row r="5" spans="3:20">
-      <c r="F5" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="18" t="s">
+      <c r="G6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="22" t="s">
+      <c r="H6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="24"/>
-    </row>
-    <row r="6" spans="3:20">
-      <c r="E6" s="9" t="s">
+      <c r="I6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="J6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="K6" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="F7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20">
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="3:20">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="3:20">
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="3:20">
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="3:20">
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="3:20">
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="3:20">
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="3:20">
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="3:20">
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="3:20">
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="22">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="13"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E31" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="F4:T4"/>
+    <mergeCell ref="F4:O4"/>
     <mergeCell ref="F5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan_d_experience.xlsx
+++ b/plan_d_experience.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quentin\Documents\ISIMA\3A\anomalie_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C5C681-B939-4F98-8EC7-1F0D6533D896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA15FDF8-BE05-402F-9FAA-1DAD6A239298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="61">
   <si>
     <t>Datasets</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.05</t>
   </si>
 </sst>
 </file>
@@ -236,13 +242,25 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -472,60 +490,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -841,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:Q31"/>
+  <dimension ref="E2:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -868,40 +896,40 @@
     </row>
     <row r="3" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="23"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="24" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="28" t="s">
@@ -913,162 +941,162 @@
       <c r="I6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>58</v>
+      <c r="F7" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>32</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>58</v>
+      <c r="K8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="Q10" t="s">
@@ -1076,195 +1104,144 @@
       </c>
     </row>
     <row r="11" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="O11" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="O12" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="O13" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="5:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="33">
         <v>1</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="33">
         <v>1</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="33">
         <v>1</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="37">
         <v>1</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="12" t="s">
+      <c r="O14" s="19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="5:17" x14ac:dyDescent="0.35">
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
